--- a/NformTester/NformTester/Keywordscripts/600.20.20.40_ConfigureActionEditMultilink1.5Client.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.20.40_ConfigureActionEditMultilink1.5Client.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7355" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7357" uniqueCount="816">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3631,10 +3631,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>;Clear configuration</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3688,6 +3684,18 @@
   </si>
   <si>
     <t>10.146.91.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\\Automation-2014-11\\NformTestMain\\NformTester\\NformTester\\precondition_license.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3873,7 +3881,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3932,6 +3940,10 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4668,7 +4680,7 @@
   <dimension ref="A1:O154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4800,7 +4812,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>798</v>
+        <v>815</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>197</v>
@@ -4831,7 +4843,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4892,7 +4904,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>2</v>
@@ -4956,7 +4968,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -4989,7 +5001,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -5018,7 +5030,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -5130,7 +5142,7 @@
         <v>19</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G15" s="20" t="s">
         <v>2</v>
@@ -5165,7 +5177,7 @@
         <v>56</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -5196,10 +5208,10 @@
         <v>7</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="J17" s="5" t="b">
         <v>1</v>
@@ -5231,10 +5243,10 @@
         <v>7</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="J18" s="5" t="b">
         <v>1</v>
@@ -5266,10 +5278,10 @@
         <v>7</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="J19" s="5" t="b">
         <v>1</v>
@@ -5332,7 +5344,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -5363,7 +5375,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -5374,8 +5386,12 @@
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
+      <c r="A23" s="24" t="s">
+        <v>813</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>814</v>
+      </c>
       <c r="C23" s="5">
         <v>22</v>
       </c>
@@ -5392,7 +5408,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -5448,7 +5464,7 @@
         <v>56</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I25" s="11"/>
       <c r="J25" s="20"/>
@@ -5500,13 +5516,13 @@
         <v>7</v>
       </c>
       <c r="H27" s="23" t="s">
+        <v>803</v>
+      </c>
+      <c r="I27" s="5" t="s">
         <v>804</v>
       </c>
-      <c r="I27" s="5" t="s">
-        <v>805</v>
-      </c>
       <c r="J27" s="20" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="K27" s="20"/>
       <c r="L27" s="5"/>
@@ -5530,13 +5546,13 @@
         <v>7</v>
       </c>
       <c r="H28" s="23" t="s">
+        <v>803</v>
+      </c>
+      <c r="I28" s="5" t="s">
         <v>804</v>
       </c>
-      <c r="I28" s="5" t="s">
-        <v>805</v>
-      </c>
       <c r="J28" s="20" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="K28" s="20"/>
       <c r="L28" s="5"/>
@@ -5560,13 +5576,13 @@
         <v>7</v>
       </c>
       <c r="H29" s="23" t="s">
+        <v>803</v>
+      </c>
+      <c r="I29" s="5" t="s">
         <v>804</v>
       </c>
-      <c r="I29" s="5" t="s">
-        <v>805</v>
-      </c>
       <c r="J29" s="20" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="K29" s="20"/>
       <c r="L29" s="5"/>
@@ -5626,7 +5642,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="5"/>
@@ -5674,7 +5690,7 @@
         <v>19</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G34" s="20" t="s">
         <v>2</v>
@@ -5704,7 +5720,7 @@
         <v>56</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
